--- a/www/DetailsTrcs.xlsx
+++ b/www/DetailsTrcs.xlsx
@@ -15,14 +15,14 @@
     <sheet name="RecapSta" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RecapSta!$A$1:$M$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RecapSta!$A$1:$N$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="116">
   <si>
     <t>Adour</t>
   </si>
@@ -358,6 +358,18 @@
   </si>
   <si>
     <t>Neste d'Oueil</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>AFB</t>
+  </si>
+  <si>
+    <t>EDF/Irstea</t>
+  </si>
+  <si>
+    <t>Maître ouvrage pêche</t>
   </si>
 </sst>
 </file>
@@ -743,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1077,6 +1089,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1255,7 +1280,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1367,9 +1392,6 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="26" fillId="33" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,15 +1407,6 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1440,6 +1453,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="16" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1920,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,23 +1983,24 @@
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>89</v>
       </c>
@@ -1957,47 +2010,50 @@
       <c r="C1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="N1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="O1" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="Q1" s="44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
@@ -2007,47 +2063,50 @@
       <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="46">
         <v>0.20877999999999999</v>
       </c>
-      <c r="F2" s="51">
+      <c r="G2" s="47">
         <v>42.997059999999998</v>
       </c>
-      <c r="G2" s="63">
+      <c r="H2" s="59">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>735</v>
       </c>
-      <c r="I2" s="12">
+      <c r="J2" s="12">
         <v>17.600000000000001</v>
       </c>
-      <c r="J2" s="11">
+      <c r="K2" s="11">
         <v>145</v>
       </c>
-      <c r="K2" s="13">
+      <c r="L2" s="13">
         <v>1.3508472222222201</v>
       </c>
-      <c r="L2" s="14">
+      <c r="M2" s="14">
         <v>82.226666768391922</v>
       </c>
-      <c r="M2" s="15">
+      <c r="N2" s="15">
         <v>9.1516000000000002</v>
       </c>
-      <c r="N2" s="60">
+      <c r="O2" s="56">
         <v>1.5</v>
       </c>
-      <c r="O2" s="13">
+      <c r="P2" s="13">
         <v>0.44</v>
       </c>
-      <c r="P2" s="15">
+      <c r="Q2" s="15">
         <v>8.68</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>101</v>
       </c>
@@ -2057,47 +2116,50 @@
       <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="48">
         <v>0.21137707444152901</v>
       </c>
-      <c r="F3" s="53">
+      <c r="G3" s="49">
         <v>42.935106440196698</v>
       </c>
-      <c r="G3" s="64">
+      <c r="H3" s="60">
         <v>4.45</v>
       </c>
-      <c r="H3" s="19">
+      <c r="I3" s="19">
         <v>1089</v>
       </c>
-      <c r="I3" s="20">
+      <c r="J3" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J3" s="19">
+      <c r="K3" s="19">
         <v>47</v>
       </c>
-      <c r="K3" s="21">
+      <c r="L3" s="21">
         <v>0.29700694444444498</v>
       </c>
-      <c r="L3" s="22">
+      <c r="M3" s="22">
         <v>75.693749809265142</v>
       </c>
-      <c r="M3" s="24">
+      <c r="N3" s="24">
         <v>4.9090999999999996</v>
       </c>
-      <c r="N3" s="61">
+      <c r="O3" s="57">
         <v>2.4</v>
       </c>
-      <c r="O3" s="21">
+      <c r="P3" s="21">
         <v>0.3</v>
       </c>
-      <c r="P3" s="24">
+      <c r="Q3" s="24">
         <v>7.08</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>74</v>
       </c>
@@ -2107,47 +2169,50 @@
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="50">
         <v>0.27338000000000001</v>
       </c>
-      <c r="F4" s="55">
+      <c r="G4" s="51">
         <v>42.945500000000003</v>
       </c>
-      <c r="G4" s="64">
+      <c r="H4" s="60">
         <v>1.76</v>
       </c>
-      <c r="H4" s="19">
+      <c r="I4" s="19">
         <v>1075</v>
       </c>
-      <c r="I4" s="20">
+      <c r="J4" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J4" s="19">
+      <c r="K4" s="19">
         <v>53</v>
       </c>
-      <c r="K4" s="21">
+      <c r="L4" s="21">
         <v>1.0051666666666701</v>
       </c>
-      <c r="L4" s="22">
+      <c r="M4" s="22">
         <v>85.185714285714283</v>
       </c>
-      <c r="M4" s="24">
+      <c r="N4" s="24">
         <v>7.2546999999999997</v>
       </c>
-      <c r="N4" s="61">
+      <c r="O4" s="57">
         <v>0.4</v>
       </c>
-      <c r="O4" s="21">
+      <c r="P4" s="21">
         <v>0.61</v>
       </c>
-      <c r="P4" s="24">
+      <c r="Q4" s="24">
         <v>7.25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>75</v>
       </c>
@@ -2157,47 +2222,50 @@
       <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="50">
         <v>0.24490999999999999</v>
       </c>
-      <c r="F5" s="55">
+      <c r="G5" s="51">
         <v>42.970260000000003</v>
       </c>
-      <c r="G5" s="64">
+      <c r="H5" s="60">
         <v>2.6178010469999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="I5" s="19">
         <v>920</v>
       </c>
-      <c r="I5" s="20">
+      <c r="J5" s="20">
         <v>13.2</v>
       </c>
-      <c r="J5" s="19">
+      <c r="K5" s="19">
         <v>71</v>
       </c>
-      <c r="K5" s="21">
+      <c r="L5" s="21">
         <v>0.27497578581871401</v>
       </c>
-      <c r="L5" s="22">
+      <c r="M5" s="22">
         <v>53.171428571428571</v>
       </c>
-      <c r="M5" s="24">
+      <c r="N5" s="24">
         <v>4.8537999999999997</v>
       </c>
-      <c r="N5" s="61">
+      <c r="O5" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O5" s="21">
+      <c r="P5" s="21">
         <v>0.2</v>
       </c>
-      <c r="P5" s="24">
+      <c r="Q5" s="24">
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>76</v>
       </c>
@@ -2207,47 +2275,50 @@
       <c r="C6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="50">
         <v>0.23211999999999999</v>
       </c>
-      <c r="F6" s="55">
+      <c r="G6" s="51">
         <v>42.986829999999998</v>
       </c>
-      <c r="G6" s="64">
+      <c r="H6" s="60">
         <v>3.29</v>
       </c>
-      <c r="H6" s="19">
+      <c r="I6" s="19">
         <v>815</v>
       </c>
-      <c r="I6" s="20">
+      <c r="J6" s="20">
         <v>15.5</v>
       </c>
-      <c r="J6" s="19">
+      <c r="K6" s="19">
         <v>76</v>
       </c>
-      <c r="K6" s="21">
+      <c r="L6" s="21">
         <v>0.29430555555555599</v>
       </c>
-      <c r="L6" s="22">
+      <c r="M6" s="22">
         <v>63.914285714285711</v>
       </c>
-      <c r="M6" s="24">
+      <c r="N6" s="24">
         <v>6.4786999999999999</v>
       </c>
-      <c r="N6" s="61">
+      <c r="O6" s="57">
         <v>1.075</v>
       </c>
-      <c r="O6" s="21">
+      <c r="P6" s="21">
         <v>0.17</v>
       </c>
-      <c r="P6" s="24">
+      <c r="Q6" s="24">
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>102</v>
       </c>
@@ -2257,47 +2328,50 @@
       <c r="C7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="48">
         <v>0.202174876064106</v>
       </c>
-      <c r="F7" s="53">
+      <c r="G7" s="49">
         <v>42.926656032572197</v>
       </c>
-      <c r="G7" s="64">
+      <c r="H7" s="60">
         <v>8.1300000000000008</v>
       </c>
-      <c r="H7" s="19">
+      <c r="I7" s="19">
         <v>1210</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="20">
         <v>6.2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="K7" s="19">
         <v>27</v>
       </c>
-      <c r="K7" s="21">
+      <c r="L7" s="21">
         <v>0.161</v>
       </c>
-      <c r="L7" s="22">
+      <c r="M7" s="22">
         <v>42.4</v>
       </c>
-      <c r="M7" s="24">
+      <c r="N7" s="24">
         <v>3.5743</v>
       </c>
-      <c r="N7" s="61">
+      <c r="O7" s="57">
         <v>1.35</v>
       </c>
-      <c r="O7" s="21">
+      <c r="P7" s="21">
         <v>0.22</v>
       </c>
-      <c r="P7" s="24">
+      <c r="Q7" s="24">
         <v>5.78</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -2307,47 +2381,50 @@
       <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="48">
         <v>2.2012116596326101</v>
       </c>
-      <c r="F8" s="53">
+      <c r="G8" s="49">
         <v>42.773140870580598</v>
       </c>
-      <c r="G8" s="64">
+      <c r="H8" s="60">
         <v>2</v>
       </c>
-      <c r="H8" s="19">
+      <c r="I8" s="19">
         <v>470</v>
       </c>
-      <c r="I8" s="20">
+      <c r="J8" s="20">
         <v>48.97</v>
       </c>
-      <c r="J8" s="19">
+      <c r="K8" s="19">
         <v>334</v>
       </c>
-      <c r="K8" s="21">
+      <c r="L8" s="21">
         <v>0.67</v>
       </c>
-      <c r="L8" s="22">
+      <c r="M8" s="22">
         <v>125</v>
       </c>
-      <c r="M8" s="24">
+      <c r="N8" s="24">
         <v>11.446300000000001</v>
       </c>
-      <c r="N8" s="61">
+      <c r="O8" s="57">
         <v>1.5</v>
       </c>
-      <c r="O8" s="21">
+      <c r="P8" s="21">
         <v>0.25</v>
       </c>
-      <c r="P8" s="24">
+      <c r="Q8" s="24">
         <v>9.25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
@@ -2357,47 +2434,50 @@
       <c r="C9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="48">
         <v>6.26048470718366</v>
       </c>
-      <c r="F9" s="53">
+      <c r="G9" s="49">
         <v>44.261977430578803</v>
       </c>
-      <c r="G9" s="64">
+      <c r="H9" s="60">
         <v>1</v>
       </c>
-      <c r="H9" s="19">
+      <c r="I9" s="19">
         <v>980</v>
       </c>
-      <c r="I9" s="20">
+      <c r="J9" s="20">
         <v>15</v>
       </c>
-      <c r="J9" s="19">
+      <c r="K9" s="19">
         <v>135</v>
       </c>
-      <c r="K9" s="21">
+      <c r="L9" s="21">
         <v>1.19091891891892</v>
       </c>
-      <c r="L9" s="22">
+      <c r="M9" s="22">
         <v>146.010946129134</v>
       </c>
-      <c r="M9" s="24">
+      <c r="N9" s="24">
         <v>8.1335999999999995</v>
       </c>
-      <c r="N9" s="61">
+      <c r="O9" s="57">
         <v>4.6000000000000005</v>
       </c>
-      <c r="O9" s="21">
+      <c r="P9" s="21">
         <v>0.52</v>
       </c>
-      <c r="P9" s="24">
+      <c r="Q9" s="24">
         <v>7.67</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>43</v>
       </c>
@@ -2407,47 +2487,50 @@
       <c r="C10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="48">
         <v>3.7392176452744299</v>
       </c>
-      <c r="F10" s="53">
+      <c r="G10" s="49">
         <v>46.0241662206953</v>
       </c>
-      <c r="G10" s="64">
+      <c r="H10" s="60">
         <v>1.5</v>
       </c>
-      <c r="H10" s="19">
+      <c r="I10" s="19">
         <v>535</v>
       </c>
-      <c r="I10" s="20">
+      <c r="J10" s="20">
         <v>14</v>
       </c>
-      <c r="J10" s="19">
+      <c r="K10" s="19">
         <v>60</v>
       </c>
-      <c r="K10" s="21">
+      <c r="L10" s="21">
         <v>1.7777777777777799</v>
       </c>
-      <c r="L10" s="22">
+      <c r="M10" s="22">
         <v>107.95877513974528</v>
       </c>
-      <c r="M10" s="24">
+      <c r="N10" s="24">
         <v>6.633</v>
       </c>
-      <c r="N10" s="61">
+      <c r="O10" s="57">
         <v>4.6079999999999997</v>
       </c>
-      <c r="O10" s="21">
+      <c r="P10" s="21">
         <v>0.67</v>
       </c>
-      <c r="P10" s="24">
+      <c r="Q10" s="24">
         <v>8.69</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
@@ -2457,47 +2540,50 @@
       <c r="C11" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="48">
         <v>0.36322885131579202</v>
       </c>
-      <c r="F11" s="53">
+      <c r="G11" s="49">
         <v>42.917215641549902</v>
       </c>
-      <c r="G11" s="64">
+      <c r="H11" s="60">
         <v>0.72</v>
       </c>
-      <c r="H11" s="19">
+      <c r="I11" s="19">
         <v>715</v>
       </c>
-      <c r="I11" s="20">
+      <c r="J11" s="20">
         <v>35.26</v>
       </c>
-      <c r="J11" s="19">
+      <c r="K11" s="19">
         <v>555</v>
       </c>
-      <c r="K11" s="21">
+      <c r="L11" s="21">
         <v>1.69440215667618</v>
       </c>
-      <c r="L11" s="22">
+      <c r="M11" s="22">
         <v>164.81538461538463</v>
       </c>
-      <c r="M11" s="24">
+      <c r="N11" s="24">
         <v>12.978</v>
       </c>
-      <c r="N11" s="61">
+      <c r="O11" s="57">
         <v>1.5</v>
       </c>
-      <c r="O11" s="21">
+      <c r="P11" s="21">
         <v>0.34</v>
       </c>
-      <c r="P11" s="24">
+      <c r="Q11" s="24">
         <v>9.24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
@@ -2507,47 +2593,50 @@
       <c r="C12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="48">
         <v>0.37168000531948597</v>
       </c>
-      <c r="F12" s="53">
+      <c r="G12" s="49">
         <v>42.9383074102374</v>
       </c>
-      <c r="G12" s="64">
+      <c r="H12" s="60">
         <v>0.72</v>
       </c>
-      <c r="H12" s="19">
+      <c r="I12" s="19">
         <v>688</v>
       </c>
-      <c r="I12" s="20">
+      <c r="J12" s="20">
         <v>37.82</v>
       </c>
-      <c r="J12" s="19">
+      <c r="K12" s="19">
         <v>573</v>
       </c>
-      <c r="K12" s="21">
+      <c r="L12" s="21">
         <v>1.9449660640659701</v>
       </c>
-      <c r="L12" s="22">
+      <c r="M12" s="22">
         <v>157.60666707356771</v>
       </c>
-      <c r="M12" s="24">
+      <c r="N12" s="24">
         <v>14.436299999999999</v>
       </c>
-      <c r="N12" s="61">
+      <c r="O12" s="57">
         <v>0.6</v>
       </c>
-      <c r="O12" s="21">
+      <c r="P12" s="21">
         <v>0.59</v>
       </c>
-      <c r="P12" s="24">
+      <c r="Q12" s="24">
         <v>9.24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>79</v>
       </c>
@@ -2557,47 +2646,50 @@
       <c r="C13" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="48">
         <v>0.37632812151341599</v>
       </c>
-      <c r="F13" s="53">
+      <c r="G13" s="49">
         <v>42.949085548212899</v>
       </c>
-      <c r="G13" s="64">
+      <c r="H13" s="60">
         <v>2.4</v>
       </c>
-      <c r="H13" s="19">
+      <c r="I13" s="19">
         <v>688</v>
       </c>
-      <c r="I13" s="20">
+      <c r="J13" s="20">
         <v>39.26</v>
       </c>
-      <c r="J13" s="19">
+      <c r="K13" s="19">
         <v>605</v>
       </c>
-      <c r="K13" s="21">
+      <c r="L13" s="21">
         <v>2.1459999999999999</v>
       </c>
-      <c r="L13" s="22">
+      <c r="M13" s="22">
         <v>173.76153846153846</v>
       </c>
-      <c r="M13" s="24">
+      <c r="N13" s="24">
         <v>12.97</v>
       </c>
-      <c r="N13" s="61">
+      <c r="O13" s="57">
         <v>1.5</v>
       </c>
-      <c r="O13" s="21">
+      <c r="P13" s="21">
         <v>0.46</v>
       </c>
-      <c r="P13" s="24">
+      <c r="Q13" s="24">
         <v>9.24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>103</v>
       </c>
@@ -2607,47 +2699,50 @@
       <c r="C14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="48">
         <v>3.7049894831450798</v>
       </c>
-      <c r="F14" s="53">
+      <c r="G14" s="49">
         <v>44.676026200453798</v>
       </c>
-      <c r="G14" s="64">
+      <c r="H14" s="60">
         <v>0.8</v>
       </c>
-      <c r="H14" s="19">
+      <c r="I14" s="19">
         <v>1095</v>
       </c>
-      <c r="I14" s="23">
+      <c r="J14" s="23">
         <v>23</v>
       </c>
-      <c r="J14" s="19">
+      <c r="K14" s="19">
         <v>124</v>
       </c>
-      <c r="K14" s="21">
+      <c r="L14" s="21">
         <v>1.0946017699115</v>
       </c>
-      <c r="L14" s="22">
+      <c r="M14" s="22">
         <v>162</v>
       </c>
-      <c r="M14" s="24">
+      <c r="N14" s="24">
         <v>7.8101000000000003</v>
       </c>
-      <c r="N14" s="61">
+      <c r="O14" s="57">
         <v>0.25</v>
       </c>
-      <c r="O14" s="21">
+      <c r="P14" s="21">
         <v>0.33</v>
       </c>
-      <c r="P14" s="24">
+      <c r="Q14" s="24">
         <v>7.71</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>104</v>
       </c>
@@ -2657,47 +2752,50 @@
       <c r="C15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="48">
         <v>6.6794130000000003</v>
       </c>
-      <c r="F15" s="53">
+      <c r="G15" s="49">
         <v>44.929740000000002</v>
       </c>
-      <c r="G15" s="64">
+      <c r="H15" s="60">
         <v>7.4</v>
       </c>
-      <c r="H15" s="19">
+      <c r="I15" s="19">
         <v>1370</v>
       </c>
-      <c r="I15" s="20">
+      <c r="J15" s="20">
         <v>28</v>
       </c>
-      <c r="J15" s="19">
+      <c r="K15" s="19">
         <v>188</v>
       </c>
-      <c r="K15" s="21">
+      <c r="L15" s="21">
         <v>2.7971014492753601</v>
       </c>
-      <c r="L15" s="22">
+      <c r="M15" s="22">
         <v>132.125</v>
       </c>
-      <c r="M15" s="24">
+      <c r="N15" s="24">
         <v>13.0875</v>
       </c>
-      <c r="N15" s="61">
+      <c r="O15" s="57">
         <v>0.7679999999999999</v>
       </c>
-      <c r="O15" s="21">
+      <c r="P15" s="21">
         <v>0.51</v>
       </c>
-      <c r="P15" s="24">
+      <c r="Q15" s="24">
         <v>5.79</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>46</v>
       </c>
@@ -2707,47 +2805,50 @@
       <c r="C16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="48">
         <v>3.0015874940983598</v>
       </c>
-      <c r="F16" s="53">
+      <c r="G16" s="49">
         <v>45.542202348280099</v>
       </c>
-      <c r="G16" s="64">
+      <c r="H16" s="60">
         <v>2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="I16" s="19">
         <v>645</v>
       </c>
-      <c r="I16" s="20">
+      <c r="J16" s="20">
         <v>18</v>
       </c>
-      <c r="J16" s="19">
+      <c r="K16" s="19">
         <v>71</v>
       </c>
-      <c r="K16" s="21">
+      <c r="L16" s="21">
         <v>0.90548780487804903</v>
       </c>
-      <c r="L16" s="22">
+      <c r="M16" s="22">
         <v>135.63636363636363</v>
       </c>
-      <c r="M16" s="24">
+      <c r="N16" s="24">
         <v>8.7364999999999995</v>
       </c>
-      <c r="N16" s="61">
+      <c r="O16" s="57">
         <v>1.1784999999999999</v>
       </c>
-      <c r="O16" s="21">
+      <c r="P16" s="21">
         <v>0.21</v>
       </c>
-      <c r="P16" s="24">
+      <c r="Q16" s="24">
         <v>8.11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
@@ -2757,47 +2858,50 @@
       <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="48">
         <v>3.4915476095733902</v>
       </c>
-      <c r="F17" s="53">
+      <c r="G17" s="49">
         <v>44.075309090562001</v>
       </c>
-      <c r="G17" s="64">
+      <c r="H17" s="60">
         <v>0.3</v>
       </c>
-      <c r="H17" s="19">
+      <c r="I17" s="19">
         <v>1040</v>
       </c>
-      <c r="I17" s="20">
+      <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="J17" s="19">
+      <c r="K17" s="19">
         <v>35</v>
       </c>
-      <c r="K17" s="21">
+      <c r="L17" s="21">
         <v>1.12820512820513</v>
       </c>
-      <c r="L17" s="22">
+      <c r="M17" s="22">
         <v>135.18181818181819</v>
       </c>
-      <c r="M17" s="24">
+      <c r="N17" s="24">
         <v>13.719099999999999</v>
       </c>
-      <c r="N17" s="61">
+      <c r="O17" s="57">
         <v>1.2749999999999999</v>
       </c>
-      <c r="O17" s="21">
+      <c r="P17" s="21">
         <v>0.33</v>
       </c>
-      <c r="P17" s="24">
+      <c r="Q17" s="24">
         <v>6.06</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>105</v>
       </c>
@@ -2807,47 +2911,50 @@
       <c r="C18" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="48">
         <v>2.927324</v>
       </c>
-      <c r="F18" s="53">
+      <c r="G18" s="49">
         <v>44.962479999999999</v>
       </c>
-      <c r="G18" s="64">
+      <c r="H18" s="60">
         <v>1.8</v>
       </c>
-      <c r="H18" s="29">
+      <c r="I18" s="29">
         <v>910</v>
       </c>
-      <c r="I18" s="23">
+      <c r="J18" s="23">
         <v>18</v>
       </c>
-      <c r="J18" s="19">
+      <c r="K18" s="19">
         <v>62</v>
       </c>
-      <c r="K18" s="21">
+      <c r="L18" s="21">
         <v>0.94582677165354301</v>
       </c>
-      <c r="L18" s="22">
+      <c r="M18" s="22">
         <v>135</v>
       </c>
-      <c r="M18" s="24">
+      <c r="N18" s="24">
         <v>7.4904999999999999</v>
       </c>
-      <c r="N18" s="61">
+      <c r="O18" s="57">
         <v>2</v>
       </c>
-      <c r="O18" s="21">
+      <c r="P18" s="21">
         <v>0.25</v>
       </c>
-      <c r="P18" s="24">
+      <c r="Q18" s="24">
         <v>7.76</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
@@ -2857,47 +2964,50 @@
       <c r="C19" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="50">
         <v>-0.14959</v>
       </c>
-      <c r="F19" s="55">
+      <c r="G19" s="51">
         <v>42.980080000000001</v>
       </c>
-      <c r="G19" s="64">
+      <c r="H19" s="60">
         <v>2.9498525070000001</v>
       </c>
-      <c r="H19" s="19">
+      <c r="I19" s="19">
         <v>660</v>
       </c>
-      <c r="I19" s="20">
+      <c r="J19" s="20">
         <v>21.5</v>
       </c>
-      <c r="J19" s="19">
+      <c r="K19" s="19">
         <v>113</v>
       </c>
-      <c r="K19" s="21">
+      <c r="L19" s="21">
         <v>0.70476388888888897</v>
       </c>
-      <c r="L19" s="22">
+      <c r="M19" s="22">
         <v>62</v>
       </c>
-      <c r="M19" s="24">
+      <c r="N19" s="24">
         <v>8.4558</v>
       </c>
-      <c r="N19" s="61">
+      <c r="O19" s="57">
         <v>1.7000000000000002</v>
       </c>
-      <c r="O19" s="21">
+      <c r="P19" s="21">
         <v>0.27</v>
       </c>
-      <c r="P19" s="24">
+      <c r="Q19" s="24">
         <v>8.86</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>51</v>
       </c>
@@ -2907,47 +3017,50 @@
       <c r="C20" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="50">
         <v>-0.13313</v>
       </c>
-      <c r="F20" s="55">
+      <c r="G20" s="51">
         <v>42.985309999999998</v>
       </c>
-      <c r="G20" s="64">
+      <c r="H20" s="60">
         <v>2.0325203250000001</v>
       </c>
-      <c r="H20" s="19">
+      <c r="I20" s="19">
         <v>600</v>
       </c>
-      <c r="I20" s="20">
+      <c r="J20" s="20">
         <v>23.2</v>
       </c>
-      <c r="J20" s="19">
+      <c r="K20" s="19">
         <v>198</v>
       </c>
-      <c r="K20" s="21">
+      <c r="L20" s="21">
         <v>0.95835507246377105</v>
       </c>
-      <c r="L20" s="22">
+      <c r="M20" s="22">
         <v>82</v>
       </c>
-      <c r="M20" s="24">
+      <c r="N20" s="24">
         <v>10.004899999999999</v>
       </c>
-      <c r="N20" s="61">
+      <c r="O20" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O20" s="21">
+      <c r="P20" s="21">
         <v>0.3</v>
       </c>
-      <c r="P20" s="24">
+      <c r="Q20" s="24">
         <v>9.39</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>52</v>
       </c>
@@ -2957,47 +3070,50 @@
       <c r="C21" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="50">
         <v>-0.10481</v>
       </c>
-      <c r="F21" s="55">
+      <c r="G21" s="51">
         <v>42.999769999999998</v>
       </c>
-      <c r="G21" s="64">
+      <c r="H21" s="60">
         <v>2.4752475249999999</v>
       </c>
-      <c r="H21" s="19">
+      <c r="I21" s="19">
         <v>460</v>
       </c>
-      <c r="I21" s="20">
+      <c r="J21" s="20">
         <v>27.2</v>
       </c>
-      <c r="J21" s="19">
+      <c r="K21" s="19">
         <v>207</v>
       </c>
-      <c r="K21" s="21">
+      <c r="L21" s="21">
         <v>1.00190277777778</v>
       </c>
-      <c r="L21" s="22">
+      <c r="M21" s="22">
         <v>62.1</v>
       </c>
-      <c r="M21" s="24">
+      <c r="N21" s="24">
         <v>10.9351</v>
       </c>
-      <c r="N21" s="61">
+      <c r="O21" s="57">
         <v>1.2</v>
       </c>
-      <c r="O21" s="21">
+      <c r="P21" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P21" s="24">
+      <c r="Q21" s="24">
         <v>9.39</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
@@ -3007,47 +3123,50 @@
       <c r="C22" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="50">
         <v>-0.18819</v>
       </c>
-      <c r="F22" s="55">
+      <c r="G22" s="51">
         <v>42.968209999999999</v>
       </c>
-      <c r="G22" s="64">
+      <c r="H22" s="60">
         <v>1.08</v>
       </c>
-      <c r="H22" s="19">
+      <c r="I22" s="19">
         <v>841</v>
       </c>
-      <c r="I22" s="20">
+      <c r="J22" s="20">
         <v>18</v>
       </c>
-      <c r="J22" s="19">
+      <c r="K22" s="19">
         <v>101</v>
       </c>
-      <c r="K22" s="21">
+      <c r="L22" s="21">
         <v>1.2164999999999999</v>
       </c>
-      <c r="L22" s="22">
+      <c r="M22" s="22">
         <v>95</v>
       </c>
-      <c r="M22" s="24">
+      <c r="N22" s="24">
         <v>10.7784</v>
       </c>
-      <c r="N22" s="61">
+      <c r="O22" s="57">
         <v>0.5</v>
       </c>
-      <c r="O22" s="21">
+      <c r="P22" s="21">
         <v>0.34</v>
       </c>
-      <c r="P22" s="24">
+      <c r="Q22" s="24">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>11</v>
       </c>
@@ -3057,47 +3176,50 @@
       <c r="C23" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="50">
         <v>1.315E-2</v>
       </c>
-      <c r="F23" s="55">
+      <c r="G23" s="51">
         <v>42.802120000000002</v>
       </c>
-      <c r="G23" s="64">
+      <c r="H23" s="60">
         <v>2.164502165</v>
       </c>
-      <c r="H23" s="19">
+      <c r="I23" s="19">
         <v>950</v>
       </c>
-      <c r="I23" s="20">
+      <c r="J23" s="20">
         <v>21.3</v>
       </c>
-      <c r="J23" s="19">
+      <c r="K23" s="19">
         <v>199</v>
       </c>
-      <c r="K23" s="21">
+      <c r="L23" s="21">
         <v>1.9558894159226199</v>
       </c>
-      <c r="L23" s="22">
+      <c r="M23" s="22">
         <v>88</v>
       </c>
-      <c r="M23" s="24">
+      <c r="N23" s="24">
         <v>15.500178999999999</v>
       </c>
-      <c r="N23" s="61">
+      <c r="O23" s="57">
         <v>0.3</v>
       </c>
-      <c r="O23" s="21">
+      <c r="P23" s="21">
         <v>0.49</v>
       </c>
-      <c r="P23" s="24">
+      <c r="Q23" s="24">
         <v>7.61</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>85</v>
       </c>
@@ -3107,47 +3229,50 @@
       <c r="C24" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="50">
         <v>1.5E-3</v>
       </c>
-      <c r="F24" s="55">
+      <c r="G24" s="51">
         <v>42.760010000000001</v>
       </c>
-      <c r="G24" s="64">
+      <c r="H24" s="60">
         <v>2.4</v>
       </c>
-      <c r="H24" s="19">
+      <c r="I24" s="19">
         <v>1215</v>
       </c>
-      <c r="I24" s="20">
+      <c r="J24" s="20">
         <v>16</v>
       </c>
-      <c r="J24" s="19">
+      <c r="K24" s="19">
         <v>86</v>
       </c>
-      <c r="K24" s="21">
+      <c r="L24" s="21">
         <v>2.4961388888888898</v>
       </c>
-      <c r="L24" s="22">
+      <c r="M24" s="22">
         <v>66</v>
       </c>
-      <c r="M24" s="24">
+      <c r="N24" s="24">
         <v>10.712199999999999</v>
       </c>
-      <c r="N24" s="61">
+      <c r="O24" s="57">
         <v>1.3</v>
       </c>
-      <c r="O24" s="21">
+      <c r="P24" s="21">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P24" s="24">
+      <c r="Q24" s="24">
         <v>6.74</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>81</v>
       </c>
@@ -3157,47 +3282,50 @@
       <c r="C25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="50">
         <v>1.7739999999999999E-2</v>
       </c>
-      <c r="F25" s="55">
+      <c r="G25" s="51">
         <v>42.78839</v>
       </c>
-      <c r="G25" s="64">
+      <c r="H25" s="60">
         <v>3.6</v>
       </c>
-      <c r="H25" s="19">
+      <c r="I25" s="19">
         <v>995</v>
       </c>
-      <c r="I25" s="20">
+      <c r="J25" s="20">
         <v>12.9</v>
       </c>
-      <c r="J25" s="19">
+      <c r="K25" s="19">
         <v>84</v>
       </c>
-      <c r="K25" s="21">
+      <c r="L25" s="21">
         <v>0.89840972222222204</v>
       </c>
-      <c r="L25" s="22">
+      <c r="M25" s="22">
         <v>65</v>
       </c>
-      <c r="M25" s="24">
+      <c r="N25" s="24">
         <v>9.2685999999999993</v>
       </c>
-      <c r="N25" s="61">
+      <c r="O25" s="57">
         <v>1.25</v>
       </c>
-      <c r="O25" s="21">
+      <c r="P25" s="21">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P25" s="24">
+      <c r="Q25" s="24">
         <v>7.34</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3207,47 +3335,50 @@
       <c r="C26" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="48">
         <v>3.8955778635157001</v>
       </c>
-      <c r="F26" s="53">
+      <c r="G26" s="49">
         <v>45.685838557789303</v>
       </c>
-      <c r="G26" s="64">
+      <c r="H26" s="60">
         <v>2.9</v>
       </c>
-      <c r="H26" s="19">
+      <c r="I26" s="19">
         <v>690</v>
       </c>
-      <c r="I26" s="20">
+      <c r="J26" s="20">
         <v>11.11</v>
       </c>
-      <c r="J26" s="19">
+      <c r="K26" s="19">
         <v>70</v>
       </c>
-      <c r="K26" s="21">
+      <c r="L26" s="21">
         <v>1.04678899082569</v>
       </c>
-      <c r="L26" s="22">
+      <c r="M26" s="22">
         <v>124.02857142857144</v>
       </c>
-      <c r="M26" s="24">
+      <c r="N26" s="24">
         <v>7.2558999999999996</v>
       </c>
-      <c r="N26" s="61">
+      <c r="O26" s="57">
         <v>1.2</v>
       </c>
-      <c r="O26" s="21">
+      <c r="P26" s="21">
         <v>0.44</v>
       </c>
-      <c r="P26" s="24">
+      <c r="Q26" s="24">
         <v>7.44</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
@@ -3257,47 +3388,50 @@
       <c r="C27" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="48">
         <v>3.9347471699835399</v>
       </c>
-      <c r="F27" s="53">
+      <c r="G27" s="49">
         <v>45.695095652823298</v>
       </c>
-      <c r="G27" s="64">
+      <c r="H27" s="60">
         <v>3.5</v>
       </c>
-      <c r="H27" s="19">
+      <c r="I27" s="19">
         <v>560</v>
       </c>
-      <c r="I27" s="20">
+      <c r="J27" s="20">
         <v>15.61</v>
       </c>
-      <c r="J27" s="19">
+      <c r="K27" s="19">
         <v>117</v>
       </c>
-      <c r="K27" s="21">
+      <c r="L27" s="21">
         <v>0.38459827721221601</v>
       </c>
-      <c r="L27" s="22">
+      <c r="M27" s="22">
         <v>148.12307692307692</v>
       </c>
-      <c r="M27" s="24">
+      <c r="N27" s="24">
         <v>6.8369</v>
       </c>
-      <c r="N27" s="61">
+      <c r="O27" s="57">
         <v>1.6</v>
       </c>
-      <c r="O27" s="21">
+      <c r="P27" s="21">
         <v>0.17</v>
       </c>
-      <c r="P27" s="24">
+      <c r="Q27" s="24">
         <v>8.16</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
@@ -3307,47 +3441,50 @@
       <c r="C28" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="48">
         <v>3.9715196462772901</v>
       </c>
-      <c r="F28" s="53">
+      <c r="G28" s="49">
         <v>45.709683378529903</v>
       </c>
-      <c r="G28" s="64">
+      <c r="H28" s="60">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H28" s="19">
+      <c r="I28" s="19">
         <v>460</v>
       </c>
-      <c r="I28" s="20">
+      <c r="J28" s="20">
         <v>21.49</v>
       </c>
-      <c r="J28" s="19">
+      <c r="K28" s="19">
         <v>128</v>
       </c>
-      <c r="K28" s="21">
+      <c r="L28" s="21">
         <v>0.27</v>
       </c>
-      <c r="L28" s="22">
+      <c r="M28" s="22">
         <v>127</v>
       </c>
-      <c r="M28" s="24">
+      <c r="N28" s="24">
         <v>5.7351000000000001</v>
       </c>
-      <c r="N28" s="61">
+      <c r="O28" s="57">
         <v>6.4</v>
       </c>
-      <c r="O28" s="21">
+      <c r="P28" s="21">
         <v>0.16</v>
       </c>
-      <c r="P28" s="24">
+      <c r="Q28" s="24">
         <v>8.01</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>86</v>
       </c>
@@ -3357,47 +3494,50 @@
       <c r="C29" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="48">
         <v>-4.2188610000000004</v>
       </c>
-      <c r="F29" s="53">
+      <c r="G29" s="49">
         <v>48.384979999999999</v>
       </c>
-      <c r="G29" s="64">
+      <c r="H29" s="60">
         <v>5.9</v>
       </c>
-      <c r="H29" s="19">
+      <c r="I29" s="19">
         <v>15</v>
       </c>
-      <c r="I29" s="23">
+      <c r="J29" s="23">
         <v>18</v>
       </c>
-      <c r="J29" s="19">
+      <c r="K29" s="19">
         <v>68</v>
       </c>
-      <c r="K29" s="21">
+      <c r="L29" s="21">
         <v>0.82385714285714295</v>
       </c>
-      <c r="L29" s="22">
+      <c r="M29" s="22">
         <v>105</v>
       </c>
-      <c r="M29" s="24">
+      <c r="N29" s="24">
         <v>7.11</v>
       </c>
-      <c r="N29" s="61">
+      <c r="O29" s="57">
         <v>0.3</v>
       </c>
-      <c r="O29" s="21">
+      <c r="P29" s="21">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P29" s="24">
+      <c r="Q29" s="24">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>82</v>
       </c>
@@ -3407,47 +3547,50 @@
       <c r="C30" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="50">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F30" s="55">
+      <c r="G30" s="51">
         <v>42.851329999999997</v>
       </c>
-      <c r="G30" s="64">
+      <c r="H30" s="60">
         <v>2</v>
       </c>
-      <c r="H30" s="19">
+      <c r="I30" s="19">
         <v>1237</v>
       </c>
-      <c r="I30" s="20">
+      <c r="J30" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J30" s="19">
+      <c r="K30" s="19">
         <v>13</v>
       </c>
-      <c r="K30" s="21">
+      <c r="L30" s="21">
         <v>0.199761424731183</v>
       </c>
-      <c r="L30" s="22">
+      <c r="M30" s="22">
         <v>171</v>
       </c>
-      <c r="M30" s="24">
+      <c r="N30" s="24">
         <v>3.7511000000000001</v>
       </c>
-      <c r="N30" s="61">
+      <c r="O30" s="57">
         <v>0.2</v>
       </c>
-      <c r="O30" s="21">
+      <c r="P30" s="21">
         <v>0.26</v>
       </c>
-      <c r="P30" s="24">
+      <c r="Q30" s="24">
         <v>7.6</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>83</v>
       </c>
@@ -3457,47 +3600,50 @@
       <c r="C31" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="50">
         <v>0.54044999999999999</v>
       </c>
-      <c r="F31" s="55">
+      <c r="G31" s="51">
         <v>42.839820000000003</v>
       </c>
-      <c r="G31" s="64">
+      <c r="H31" s="60">
         <v>3.8</v>
       </c>
-      <c r="H31" s="19">
+      <c r="I31" s="19">
         <v>1165</v>
       </c>
-      <c r="I31" s="20">
+      <c r="J31" s="20">
         <v>6.7</v>
       </c>
-      <c r="J31" s="19">
+      <c r="K31" s="19">
         <v>24</v>
       </c>
-      <c r="K31" s="21">
+      <c r="L31" s="21">
         <v>0.31010656250000002</v>
       </c>
-      <c r="L31" s="22">
+      <c r="M31" s="22">
         <v>147</v>
       </c>
-      <c r="M31" s="24">
+      <c r="N31" s="24">
         <v>4.5957999999999997</v>
       </c>
-      <c r="N31" s="61">
+      <c r="O31" s="57">
         <v>0.4</v>
       </c>
-      <c r="O31" s="21">
+      <c r="P31" s="21">
         <v>0.27</v>
       </c>
-      <c r="P31" s="24">
+      <c r="Q31" s="24">
         <v>7.6</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
@@ -3507,47 +3653,50 @@
       <c r="C32" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="50">
         <v>0.54825999999999997</v>
       </c>
-      <c r="F32" s="55">
+      <c r="G32" s="51">
         <v>42.824420000000003</v>
       </c>
-      <c r="G32" s="64">
+      <c r="H32" s="60">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H32" s="19">
+      <c r="I32" s="19">
         <v>1051</v>
       </c>
-      <c r="I32" s="20">
+      <c r="J32" s="20">
         <v>9</v>
       </c>
-      <c r="J32" s="19">
+      <c r="K32" s="19">
         <v>31</v>
       </c>
-      <c r="K32" s="21">
+      <c r="L32" s="21">
         <v>0.475944444444444</v>
       </c>
-      <c r="L32" s="22">
+      <c r="M32" s="22">
         <v>144</v>
       </c>
-      <c r="M32" s="24">
+      <c r="N32" s="24">
         <v>4.9457000000000004</v>
       </c>
-      <c r="N32" s="61">
+      <c r="O32" s="57">
         <v>1</v>
       </c>
-      <c r="O32" s="21">
+      <c r="P32" s="21">
         <v>0.36</v>
       </c>
-      <c r="P32" s="24">
+      <c r="Q32" s="24">
         <v>7.6</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>55</v>
       </c>
@@ -3557,47 +3706,50 @@
       <c r="C33" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="48">
         <v>2.0385711988576101</v>
       </c>
-      <c r="F33" s="53">
+      <c r="G33" s="49">
         <v>42.818049578719197</v>
       </c>
-      <c r="G33" s="64">
+      <c r="H33" s="60">
         <v>6</v>
       </c>
-      <c r="H33" s="19">
+      <c r="I33" s="19">
         <v>716</v>
       </c>
-      <c r="I33" s="20">
+      <c r="J33" s="20">
         <v>12</v>
       </c>
-      <c r="J33" s="19">
+      <c r="K33" s="19">
         <v>28</v>
       </c>
-      <c r="K33" s="21">
+      <c r="L33" s="21">
         <v>0.45323529411764701</v>
       </c>
-      <c r="L33" s="22">
+      <c r="M33" s="22">
         <v>116</v>
       </c>
-      <c r="M33" s="24">
+      <c r="N33" s="24">
         <v>5.0294999999999996</v>
       </c>
-      <c r="N33" s="61">
+      <c r="O33" s="57">
         <v>1.5359999999999998</v>
       </c>
-      <c r="O33" s="21">
+      <c r="P33" s="21">
         <v>0.45</v>
       </c>
-      <c r="P33" s="24">
+      <c r="Q33" s="24">
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>57</v>
       </c>
@@ -3607,47 +3759,50 @@
       <c r="C34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="48">
         <v>5.8565719123681799</v>
       </c>
-      <c r="F34" s="53">
+      <c r="G34" s="49">
         <v>44.936150973922601</v>
       </c>
-      <c r="G34" s="64">
+      <c r="H34" s="60">
         <v>2.5</v>
       </c>
-      <c r="H34" s="19">
+      <c r="I34" s="19">
         <v>870</v>
       </c>
-      <c r="I34" s="20">
+      <c r="J34" s="20">
         <v>15.44</v>
       </c>
-      <c r="J34" s="19">
+      <c r="K34" s="19">
         <v>76</v>
       </c>
-      <c r="K34" s="21">
+      <c r="L34" s="21">
         <v>2.1653631284916202</v>
       </c>
-      <c r="L34" s="22">
+      <c r="M34" s="22">
         <v>149.5</v>
       </c>
-      <c r="M34" s="24">
+      <c r="N34" s="24">
         <v>9.2957999999999998</v>
       </c>
-      <c r="N34" s="61">
+      <c r="O34" s="57">
         <v>1.6</v>
       </c>
-      <c r="O34" s="21">
+      <c r="P34" s="21">
         <v>0.85</v>
       </c>
-      <c r="P34" s="24">
+      <c r="Q34" s="24">
         <v>8.18</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
@@ -3657,47 +3812,50 @@
       <c r="C35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="48">
         <v>5.8567</v>
       </c>
-      <c r="F35" s="53">
+      <c r="G35" s="49">
         <v>44.914439999999999</v>
       </c>
-      <c r="G35" s="64">
+      <c r="H35" s="60">
         <v>4</v>
       </c>
-      <c r="H35" s="19">
+      <c r="I35" s="19">
         <v>740</v>
       </c>
-      <c r="I35" s="23">
+      <c r="J35" s="23">
         <v>18.27</v>
       </c>
-      <c r="J35" s="19">
+      <c r="K35" s="19">
         <v>86</v>
       </c>
-      <c r="K35" s="21">
+      <c r="L35" s="21">
         <v>0.33</v>
       </c>
-      <c r="L35" s="22">
+      <c r="M35" s="22">
         <v>100</v>
       </c>
-      <c r="M35" s="24">
+      <c r="N35" s="24">
         <v>7.39</v>
       </c>
-      <c r="N35" s="61">
+      <c r="O35" s="57">
         <v>1.6</v>
       </c>
-      <c r="O35" s="21">
+      <c r="P35" s="21">
         <v>0.25</v>
       </c>
-      <c r="P35" s="24">
+      <c r="Q35" s="24">
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>58</v>
       </c>
@@ -3707,47 +3865,50 @@
       <c r="C36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="48">
         <v>3.6545313373683999</v>
       </c>
-      <c r="F36" s="53">
+      <c r="G36" s="49">
         <v>45.253271778533602</v>
       </c>
-      <c r="G36" s="64">
+      <c r="H36" s="60">
         <v>1.5</v>
       </c>
-      <c r="H36" s="19">
+      <c r="I36" s="19">
         <v>820</v>
       </c>
-      <c r="I36" s="20">
+      <c r="J36" s="20">
         <v>22</v>
       </c>
-      <c r="J36" s="19">
+      <c r="K36" s="19">
         <v>84</v>
       </c>
-      <c r="K36" s="21">
+      <c r="L36" s="21">
         <v>0.48774193548387101</v>
       </c>
-      <c r="L36" s="22">
+      <c r="M36" s="22">
         <v>165.86214310285516</v>
       </c>
-      <c r="M36" s="24">
+      <c r="N36" s="24">
         <v>7.0923999999999996</v>
       </c>
-      <c r="N36" s="61">
+      <c r="O36" s="57">
         <v>0.624</v>
       </c>
-      <c r="O36" s="21">
+      <c r="P36" s="21">
         <v>0.26</v>
       </c>
-      <c r="P36" s="24">
+      <c r="Q36" s="24">
         <v>7.56</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>84</v>
       </c>
@@ -3757,47 +3918,50 @@
       <c r="C37" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="50">
         <v>0.30947000000000002</v>
       </c>
-      <c r="F37" s="55">
+      <c r="G37" s="51">
         <v>42.806420000000003</v>
       </c>
-      <c r="G37" s="64">
+      <c r="H37" s="60">
         <v>3.03</v>
       </c>
-      <c r="H37" s="19">
+      <c r="I37" s="19">
         <v>872</v>
       </c>
-      <c r="I37" s="20">
+      <c r="J37" s="20">
         <v>21.17</v>
       </c>
-      <c r="J37" s="19">
+      <c r="K37" s="19">
         <v>250</v>
       </c>
-      <c r="K37" s="21">
+      <c r="L37" s="21">
         <v>1.4159999999999999</v>
       </c>
-      <c r="L37" s="22">
+      <c r="M37" s="22">
         <v>111</v>
       </c>
-      <c r="M37" s="24">
+      <c r="N37" s="24">
         <v>8.2094000000000005</v>
       </c>
-      <c r="N37" s="61">
+      <c r="O37" s="57">
         <v>1.5</v>
       </c>
-      <c r="O37" s="21">
+      <c r="P37" s="21">
         <v>0.37</v>
       </c>
-      <c r="P37" s="24">
+      <c r="Q37" s="24">
         <v>7.73</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>78</v>
       </c>
@@ -3807,47 +3971,50 @@
       <c r="C38" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="52">
         <v>-1.4005799999999999</v>
       </c>
-      <c r="F38" s="57">
+      <c r="G38" s="53">
         <v>49.135759999999998</v>
       </c>
-      <c r="G38" s="64">
+      <c r="H38" s="60">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H38" s="19">
+      <c r="I38" s="19">
         <v>34</v>
       </c>
-      <c r="I38" s="23">
+      <c r="J38" s="23">
         <v>9</v>
       </c>
-      <c r="J38" s="19">
+      <c r="K38" s="19">
         <v>23</v>
       </c>
-      <c r="K38" s="21">
+      <c r="L38" s="21">
         <v>0.11753846153846199</v>
       </c>
-      <c r="L38" s="22">
+      <c r="M38" s="22">
         <v>125</v>
       </c>
-      <c r="M38" s="24">
+      <c r="N38" s="24">
         <v>3.86</v>
       </c>
-      <c r="N38" s="61">
+      <c r="O38" s="57">
         <v>0.01</v>
       </c>
-      <c r="O38" s="21">
+      <c r="P38" s="21">
         <v>0.1</v>
       </c>
-      <c r="P38" s="24">
+      <c r="Q38" s="24">
         <v>11.26</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>60</v>
       </c>
@@ -3857,47 +4024,50 @@
       <c r="C39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="48">
         <v>2.38447582566116</v>
       </c>
-      <c r="F39" s="53">
+      <c r="G39" s="49">
         <v>42.411429915616601</v>
       </c>
-      <c r="G39" s="64">
+      <c r="H39" s="60">
         <v>10</v>
       </c>
-      <c r="H39" s="19">
+      <c r="I39" s="19">
         <v>1200</v>
       </c>
-      <c r="I39" s="20">
+      <c r="J39" s="20">
         <v>3</v>
       </c>
-      <c r="J39" s="19">
+      <c r="K39" s="19">
         <v>12</v>
       </c>
-      <c r="K39" s="21">
+      <c r="L39" s="21">
         <v>0.69024468085106405</v>
       </c>
-      <c r="L39" s="22">
+      <c r="M39" s="22">
         <v>95</v>
       </c>
-      <c r="M39" s="24">
+      <c r="N39" s="24">
         <v>5.0191999999999997</v>
       </c>
-      <c r="N39" s="61">
+      <c r="O39" s="57">
         <v>1.28</v>
       </c>
-      <c r="O39" s="21">
+      <c r="P39" s="21">
         <v>0.45</v>
       </c>
-      <c r="P39" s="24">
+      <c r="Q39" s="24">
         <v>6.77</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>87</v>
       </c>
@@ -3907,47 +4077,50 @@
       <c r="C40" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="48">
         <v>-3.0880700000000001</v>
       </c>
-      <c r="F40" s="53">
+      <c r="G40" s="49">
         <v>48.456899999999997</v>
       </c>
-      <c r="G40" s="28">
+      <c r="H40" s="28">
         <v>13.2</v>
       </c>
-      <c r="H40" s="29">
+      <c r="I40" s="29">
         <v>114</v>
       </c>
-      <c r="I40" s="23">
+      <c r="J40" s="23">
         <v>15</v>
       </c>
-      <c r="J40" s="29">
+      <c r="K40" s="29">
         <v>91</v>
       </c>
-      <c r="K40" s="21">
+      <c r="L40" s="21">
         <v>0.77076502732240404</v>
       </c>
-      <c r="L40" s="29">
+      <c r="M40" s="29">
         <v>84</v>
       </c>
-      <c r="M40" s="24">
+      <c r="N40" s="24">
         <v>6.95</v>
       </c>
-      <c r="N40" s="61">
+      <c r="O40" s="57">
         <v>1.3</v>
       </c>
-      <c r="O40" s="21">
+      <c r="P40" s="21">
         <v>0.36</v>
       </c>
-      <c r="P40" s="24">
+      <c r="Q40" s="24">
         <v>11.15</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>106</v>
       </c>
@@ -3957,43 +4130,46 @@
       <c r="C41" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="54">
         <v>3.5252053654750601</v>
       </c>
-      <c r="F41" s="59">
+      <c r="G41" s="55">
         <v>44.720566360504201</v>
       </c>
-      <c r="G41" s="65">
+      <c r="H41" s="61">
         <v>3.5</v>
       </c>
-      <c r="H41" s="34">
+      <c r="I41" s="34">
         <v>1320</v>
       </c>
-      <c r="I41" s="35">
+      <c r="J41" s="35">
         <v>4</v>
       </c>
-      <c r="J41" s="34">
+      <c r="K41" s="34">
         <v>9</v>
       </c>
-      <c r="K41" s="36">
+      <c r="L41" s="36">
         <v>0.19500000000000001</v>
       </c>
-      <c r="L41" s="37">
+      <c r="M41" s="37">
         <v>179.08333333333334</v>
       </c>
-      <c r="M41" s="38">
+      <c r="N41" s="38">
         <v>2.8561999999999999</v>
       </c>
-      <c r="N41" s="62">
+      <c r="O41" s="58">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="O41" s="36">
+      <c r="P41" s="36">
         <v>0.26</v>
       </c>
-      <c r="P41" s="38">
+      <c r="Q41" s="38">
         <v>6.56</v>
       </c>
     </row>
